--- a/medicine/Mort/Céphalophorie/Céphalophorie.xlsx
+++ b/medicine/Mort/Céphalophorie/Céphalophorie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phalophorie</t>
+          <t>Céphalophorie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une céphalophorie est un épisode où un personnage, généralement un saint décapité, dit céphalophore, porte la tête dans les mains et se met en marche.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phalophorie</t>
+          <t>Céphalophorie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une céphalophorie, du grec képhalê (tête) et phorein (porter), est un épisode où un personnage décapité se relève et prend la tête entre les mains avant de se mettre en marche. Le personnage lui-même s'appelle céphalophore.
 Le terme céphalophore a été utilisé pour la première fois par Marcel Hébert, dans son article « Les martyrs céphalophores Euchaire, Elophe et Libaire », in Revue de l'Université de Bruxelles, v. 19 (1914). Depuis ce terme a été repris par les pays anglo-saxons.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9phalophorie</t>
+          <t>Céphalophorie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,21 +557,127 @@
           <t>Saints céphalophores</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est un thème courant de l'hagiographie chrétienne. Le céphalophore est généralement un saint, martyr par décapitation. Dans ce cas, l'auréole de sainteté peut être placée soit sur le cou (à l'emplacement où la tête aurait dû se trouver), soit autour de la tête que le saint tient dans ses mains, soit un halo double, sur le cou et autour de la tête. Aussi bien les hommes que les femmes peuvent être céphalophores, mais la grande majorité des céphalophores sont masculins. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un thème courant de l'hagiographie chrétienne. Le céphalophore est généralement un saint, martyr par décapitation. Dans ce cas, l'auréole de sainteté peut être placée soit sur le cou (à l'emplacement où la tête aurait dû se trouver), soit autour de la tête que le saint tient dans ses mains, soit un halo double, sur le cou et autour de la tête. Aussi bien les hommes que les femmes peuvent être céphalophores, mais la grande majorité des céphalophores sont masculins. 
 Il y a aussi des thèmes proches. L'un de ces thèmes est celui des têtes qui restent vivantes et parlent après la décapitation, mais sans que le corps les déplace. Il existe plusieurs exemples comme celui de saint Nicaise, qui continue de réciter après avoir été décapité. On peut aussi mentionner saint Juste de Beauvais : quand ce garçon se fait décapiter, il se lève et donne sa tête à son père en lui demandant de la remettre à sa mère pour qu'elle puisse l'embrasser. Il est retenu dans les céphalophores parce qu'il continue de prêcher après décapitation. Il attend aussi son père avec sa tête entre ses mains. Cependant, il n'a pas réellement accompli de déplacement ; c'est son père qui a ramené sa tête à Auxerre.
 Un autre thème proche est celui de saint Paul l'apôtre, dans La Légende dorée. Pour prouver que le chef trouvé est le sien, son corps le rejoint. On peut le représenter la tête à ses pieds. 
 Saint Cuthbert de Lindisfarne est parfois représenté avec deux têtes, une sur son cou et une entre ses mains, mais il n'est en aucun cas céphalophore ; il tient la tête de saint Oswald.
 De nombreux saints céphalophores faisaient l'objet d'un culte. Leurs reliques, et en particulier leur chef, étaient réputées guérir les maladies mentales (liées à la « tête ») ou des maux de tête.
-Le chemin des saints
-Les céphalophores semblent suivre un schéma pour leurs déplacements[1],[2]. Souvent, ils traversent ou suivent une rivière, un cours d'eau ou un lac. À l'endroit où ils entrent dans l'eau, ou dans une source proche, ils y lavent leur tête. Une trace de ce passage sera laissée dans le paysage ; ils posent la tête parfois sur une pierre qui sera marquée de leur sang, ou alors leur pas (ou genou) restera gravé dans la pierre... Ensuite, ils gagnent un lieu élevé, comme une colline, où ils trouvent le repos éternel. Souvent, une église, une cathédrale ou une chapelle est bâtie à cet endroit en leur mémoire. Ce schéma est par exemple suivi par saint Denis, saint Wyllow, saint Lucain et saint Gohard de Nantes.
-Grande-Bretagne
-Devon : saint Nectan
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le chemin des saints</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les céphalophores semblent suivre un schéma pour leurs déplacements,. Souvent, ils traversent ou suivent une rivière, un cours d'eau ou un lac. À l'endroit où ils entrent dans l'eau, ou dans une source proche, ils y lavent leur tête. Une trace de ce passage sera laissée dans le paysage ; ils posent la tête parfois sur une pierre qui sera marquée de leur sang, ou alors leur pas (ou genou) restera gravé dans la pierre... Ensuite, ils gagnent un lieu élevé, comme une colline, où ils trouvent le repos éternel. Souvent, une église, une cathédrale ou une chapelle est bâtie à cet endroit en leur mémoire. Ce schéma est par exemple suivi par saint Denis, saint Wyllow, saint Lucain et saint Gohard de Nantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Grande-Bretagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Devon : saint Nectan
 Dorset : saint Juthwara
- Essex : sainte Osgyth (aussi Sythe, Othith et Ositha).
-France
-Aquitaine : sainte Quitterie, saint Maurin d'Agen, saint Aventin de Larboust, saint Sever
+ Essex : sainte Osgyth (aussi Sythe, Othith et Ositha).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aquitaine : sainte Quitterie, saint Maurin d'Agen, saint Aventin de Larboust, saint Sever
 Auvergne : saint Principin, sainte Procule
 Beauce : saint Lucain
 Berry : saint Génitour du Blanc, sainte Solange de Bourges
@@ -574,53 +694,225 @@
 Nord-pas de Calais : saint Chrysole, Sainte Saturnine de Sains-lès-Marquion
 Normandie : Saint Clair de Normandie (Saint-Clair-sur-Epte)
 Picardie : sainte Maxence, saint Juste, saint Lucien, saint Fuscien, saint Victoric
-Provence : saint Mitre
-Espagne
-Jaca (Aragon) : sainte Orosia
-Saragosse (Aragon) : saint Lambert
-Suisse
-Valais : saint Maurice
-Zurich : saints Felix, Regula et Exuperantius
-Allemagne
-Saint Theonistus de Mayence (aussi Theonist, Teonesto, Thaumastus, Thaumastos, Theonestus, Thonistus, Onistus, Teonisto, Tonisto). Compagnon de saint Ours.  Fêté le 23 ou 30 octobre
-Italie
-Saint Gemolo ou Gemolus (XIe siècle). Avec son frère saint Himerius (Imerio, Imier) de Bosto, ils se sont lancés à la poursuite de brigands qui avaient attaqué leur oncle, évêque, lors d'un pèlerinage. Ils sont décapités par les brigands. Gemolo ramasse sa tête, monte sur son cheval et rejoint son oncle avant de mourir. Fêté le 4 février.
+Provence : saint Mitre</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jaca (Aragon) : sainte Orosia
+Saragosse (Aragon) : saint Lambert</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Valais : saint Maurice
+Zurich : saints Felix, Regula et Exuperantius</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Saint Theonistus de Mayence (aussi Theonist, Teonesto, Thaumastus, Thaumastos, Theonestus, Thonistus, Onistus, Teonisto, Tonisto). Compagnon de saint Ours.  Fêté le 23 ou 30 octobre</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Saint Gemolo ou Gemolus (XIe siècle). Avec son frère saint Himerius (Imerio, Imier) de Bosto, ils se sont lancés à la poursuite de brigands qui avaient attaqué leur oncle, évêque, lors d'un pèlerinage. Ils sont décapités par les brigands. Gemolo ramasse sa tête, monte sur son cheval et rejoint son oncle avant de mourir. Fêté le 4 février.
 Saint Minias de Florence.
 Saint Emygdius (aussi Emidius, Æmedius, Emigdius, Hemigidius) (IIIe siècle) décapité par Polymius. Fêté le 5 ou le 18 août.
-Saint Donnino de Fidenza.
-Irlande / Pays de Galles
-Saint Wyllow, il a traversé un cours d'eau et déposé sa tête à un endroit où on lui a bâti une chapelle.
+Saint Donnino de Fidenza.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Saints céphalophores</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Irlande / Pays de Galles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Saint Wyllow, il a traversé un cours d'eau et déposé sa tête à un endroit où on lui a bâti une chapelle.
 Sainte Winefride de Treffynnon est céphalophore dans le folklore du Pays de Galles.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%A9phalophorie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Céphalophorie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophorie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>En littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans la littérature grecque antique, toute une discussion se fait autour de la crédibilité des têtes parlantes que l'on retrouve dans la mythologie grecque. Cette discussion est, entre autres, lancée par Aristote[3] qui chante la tête d'Orphée et de Homère qui semblent encore parler. Cette discussion est reprise dans le De Bello Troiano de Joseph d'Exeter (XIIe siècle) : Hector agite la tête de Patrocle, qui susurre « Ultor ubi Aeacides » (« où est Achille mon vengeur ? »). On ne peut pas encore parler de céphalophorie.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dans la littérature grecque antique, toute une discussion se fait autour de la crédibilité des têtes parlantes que l'on retrouve dans la mythologie grecque. Cette discussion est, entre autres, lancée par Aristote qui chante la tête d'Orphée et de Homère qui semblent encore parler. Cette discussion est reprise dans le De Bello Troiano de Joseph d'Exeter (XIIe siècle) : Hector agite la tête de Patrocle, qui susurre « Ultor ubi Aeacides » (« où est Achille mon vengeur ? »). On ne peut pas encore parler de céphalophorie.
 Dans la Divine Comédie de Dante, Bertran de Born est décapité au huitième cercle de l'Enfer, mais il tient sa tête par les cheveux. On ne peut donc pas parler de céphalophorie.
 Dans Sire Gauvain et le Chevalier vert, roman de chevalerie du XVIe siècle, le chevalier vert est un céphalophore.</t>
         </is>
